--- a/Stunden.xlsx
+++ b/Stunden.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E41F8-78AF-413B-8B5C-30F49DE02362}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB6D2F0-A764-44DC-B77E-277FD0D38B9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Daum</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>Das Protokoll vom 13.12.2018 wurde ausformuliert und digitalisiert</t>
+  </si>
+  <si>
+    <t>Kaindl, Eberl, Winkler, Wacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die "nächsten Schritte" wurden festgehalten. Dazu zählt ein Terminplan und es wurde </t>
+  </si>
+  <si>
+    <t>der "Starttermin" gesetzt (Nach den Semesterferien). Weiters wurde besprochen,</t>
+  </si>
+  <si>
+    <t>welche Mittel uns zur Verfügung stehen bzw woran wir das System testen können</t>
+  </si>
+  <si>
+    <t>Protokolle/Protokoll_3</t>
+  </si>
+  <si>
+    <t>Protokoll_3</t>
+  </si>
+  <si>
+    <t>Das Protokoll vom 15.01.2019 wurde ausformuliert und digitalisiert</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -162,9 +186,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -173,7 +195,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -183,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -198,15 +222,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,45 +514,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="86.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7265625" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43412</v>
       </c>
@@ -545,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -555,7 +582,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43447</v>
       </c>
@@ -578,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -588,7 +615,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -598,7 +625,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43451</v>
       </c>
@@ -621,7 +648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -631,7 +658,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -641,84 +668,127 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>43480</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="11">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:7" s="22" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13">
-        <f>SUM(D2,D4,D7,D13)</f>
-        <v>8.5</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
+        <f>SUM(D2,D4,D7,D15,D10,D16)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3">
-        <f>180-D16</f>
-        <v>171.5</v>
+      <c r="D20" s="3">
+        <f>180-D18</f>
+        <v>169.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stunden.xlsx
+++ b/Stunden.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB6D2F0-A764-44DC-B77E-277FD0D38B9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175370F-3E3B-4C3B-8004-02BB35AA35C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Daum</t>
   </si>
@@ -127,7 +127,25 @@
     <t>Das Protokoll vom 15.01.2019 wurde ausformuliert und digitalisiert</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>Protokolle/Protokoll_1</t>
+  </si>
+  <si>
+    <t>Grobes Konzept des Terminplans wurde erstellt (Ausarbeitung noch nicht gemacht)</t>
+  </si>
+  <si>
+    <t>Kaind, Eberl, Winkler</t>
+  </si>
+  <si>
+    <t>Protokolle/Protokolle_4</t>
+  </si>
+  <si>
+    <t>Protokoll_4</t>
+  </si>
+  <si>
+    <t>Eberl, Kaindl</t>
+  </si>
+  <si>
+    <t>Das Konzept des Terminplans vom 23.01.2019 wurde digitalisiert</t>
   </si>
 </sst>
 </file>
@@ -157,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,11 +221,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,6 +263,11 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -514,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +605,9 @@
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -701,94 +738,125 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>43488</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="23" t="s">
-        <v>33</v>
+      <c r="D16" s="15">
+        <v>1</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:6" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="D17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13">
-        <f>SUM(D2,D4,D7,D15,D10,D16)</f>
-        <v>10.5</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13">
+        <f>SUM(D2,D4,D7,D16,D10,D17,D13,D18)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3">
-        <f>180-D18</f>
-        <v>169.5</v>
+      <c r="D21" s="3">
+        <f>180-D19</f>
+        <v>167.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stunden.xlsx
+++ b/Stunden.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175370F-3E3B-4C3B-8004-02BB35AA35C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65360904-62C8-4575-B200-17CC8DD00736}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Daum</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Grobes Konzept des Terminplans wurde erstellt (Ausarbeitung noch nicht gemacht)</t>
   </si>
   <si>
-    <t>Kaind, Eberl, Winkler</t>
-  </si>
-  <si>
     <t>Protokolle/Protokolle_4</t>
   </si>
   <si>
@@ -146,6 +143,18 @@
   </si>
   <si>
     <t>Das Konzept des Terminplans vom 23.01.2019 wurde digitalisiert</t>
+  </si>
+  <si>
+    <t>Terminplan wurde in ProjectLibre umgesetzt und an Herrn Wacher und Professor</t>
+  </si>
+  <si>
+    <t>Winkler weitergeleitet</t>
+  </si>
+  <si>
+    <t>Kaindl, Eberl, Winkler</t>
+  </si>
+  <si>
+    <t>Terminplan/</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -221,22 +230,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -263,11 +261,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -548,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,115 +743,148 @@
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:7" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43488</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="9">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>43516</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="23">
         <v>0.5</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="E19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="F20" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13">
-        <f>SUM(D2,D4,D7,D16,D10,D17,D13,D18)</f>
-        <v>12.5</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13">
+        <f>SUM(D2,D4,D7,D18,D10,D19,D13,D20,D14)</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3">
-        <f>180-D19</f>
-        <v>167.5</v>
+      <c r="D23" s="3">
+        <f>180-D21</f>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
